--- a/results/FrequencyTables/27974196_gEnv2.xlsx
+++ b/results/FrequencyTables/27974196_gEnv2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0111058857576963</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000325579712766342</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>0.980175813044894</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.0567593965922657</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000180877618203523</v>
       </c>
       <c r="G2">
-        <v>0.99</v>
+        <v>0.9846254024527</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.000397930760047752</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000180877618203523</v>
       </c>
       <c r="J2">
-        <v>0.95</v>
+        <v>0.964475635784828</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00061498390189198</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000470281807329161</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.989907028904243</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.999746771334515</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000217053141844228</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.61755236407047e-05</v>
       </c>
       <c r="Q2">
-        <v>0.98</v>
+        <v>0.99026878414065</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000108526570922114</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00748833339362587</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.999529718192671</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000289404189125638</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00119379228014326</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000434106283688456</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000180877618203523</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,70 +542,70 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0286871902470788</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00723510472814094</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00206200484752017</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.988930289765944</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00271316427305285</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000253228665484933</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.999348840574467</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0146872625981261</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000217053141844228</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00220670694208299</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00159172304019101</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.999529718192671</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000253228665484933</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.999457367145389</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0061498390189198</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.61755236407047e-05</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000144702094562819</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.963643598741092</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.970842527945592</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0045942915023695</v>
       </c>
       <c r="E4">
-        <v>0.96</v>
+        <v>0.936367253916</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.000144702094562819</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.00705422710993742</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.999167962956264</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000108526570922114</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.0109973591867742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.999131787432623</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.99949354266903</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00687334949173389</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000253228665484933</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.998046521723402</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02</v>
+        <v>0.0092247585283797</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0069095250153746</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000289404189125638</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.998697681148935</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.999421191621749</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.999674420287234</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,31 +687,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0251781644539305</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000108526570922114</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.00763303548818869</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00423253626596245</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0107441305212893</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0053539774988243</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000180877618203523</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000325579712766342</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00976739138299027</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000904388091017617</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000434106283688456</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3.61755236407047e-05</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000397930760047752</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.979379951524798</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.999529718192671</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3.61755236407047e-05</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.23510472814094e-05</v>
       </c>
     </row>
   </sheetData>
